--- a/SOP/Aula6-18.09.2023/Exercicios.xlsx
+++ b/SOP/Aula6-18.09.2023/Exercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SENAI-2023\SOP\Aula6-18.09.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carlos\SENAI-2023\SOP\Aula6-18.09.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3873AA9-D572-41B3-8165-79257FC8933A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BF055-3921-4055-9580-82AC5262A030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{939DA7DB-8928-4CEF-BB7F-60BA5D075256}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{939DA7DB-8928-4CEF-BB7F-60BA5D075256}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -352,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -361,70 +361,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +390,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,41 +733,41 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -798,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -834,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -852,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -870,7 +849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -888,49 +867,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -950,15 +929,15 @@
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -975,14 +954,14 @@
         <f t="shared" ref="E12:E15" si="1">IF(AND(B12&gt;=18,B12&lt;=65,C12="M",D12&gt;=60),"Apto",IF(AND(B12&gt;=15,B12&lt;=60,C12="F",D12&gt;=60),"Apto","Inapto"))</f>
         <v>Inapto</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +979,7 @@
         <v>Apto</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +997,7 @@
         <v>Inapto</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1036,35 +1015,35 @@
         <v>Apto</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="G17" s="22" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="G17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1080,319 +1059,319 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>1000</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <f>IF(B19&lt;=1320,B19*$H$19,IF(B19&lt;=2571.29,B19*$H$20,IF(B19&lt;=3856.94,B19*$H$21,IF(B19&lt;=7507.49,B19*$H$22,7507.49*$H$22))))</f>
         <v>75</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <f>B19-C19</f>
         <v>925</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="5" t="str">
         <f>IF(AND(D19&gt;=2112.01,D19&lt;=2826.65),D19*$J$19,IF(AND(D19&gt;=2826.66,D19&lt;=3751.05),D19*$J$20,IF(AND(D19&gt;=3751.06,D19&lt;=4664.68),D19*$J$21,IF(D19&gt;4664.68,D19*$J$22,"Isento"))))</f>
         <v>Isento</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>1320</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>2000</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <f t="shared" ref="C20:C27" si="2">IF(B20&lt;=1320,B20*$H$19,IF(B20&lt;=2571.29,B20*$H$20,IF(B20&lt;=3856.94,B20*$H$21,IF(B20&lt;=7507.49,B20*$H$22,7507.49*$H$22))))</f>
         <v>180</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <f t="shared" ref="D20:D27" si="3">B20-C20</f>
         <v>1820</v>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="5" t="str">
         <f t="shared" ref="E20:E27" si="4">IF(AND(D20&gt;=2112.01,D20&lt;=2826.65),D20*$J$19,IF(AND(D20&gt;=2826.66,D20&lt;=3751.05),D20*$J$20,IF(AND(D20&gt;=3751.06,D20&lt;=4664.68),D20*$J$21,IF(D20&gt;4664.68,D20*$J$22,"Isento"))))</f>
         <v>Isento</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="8">
         <v>0.09</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>3000</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <f t="shared" si="3"/>
         <v>2640</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="8">
         <v>0.12</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="6">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>4000</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <f t="shared" si="3"/>
         <v>3440</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <f t="shared" si="4"/>
         <v>516</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="6">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>5000</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <f t="shared" si="2"/>
         <v>700.00000000000011</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <f t="shared" si="3"/>
         <v>4300</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <f t="shared" si="4"/>
         <v>967.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <v>6000</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <f t="shared" si="2"/>
         <v>840.00000000000011</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <f t="shared" si="3"/>
         <v>5160</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <f t="shared" si="4"/>
         <v>1419.0000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <v>7000</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <f t="shared" si="2"/>
         <v>980.00000000000011</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <f t="shared" si="3"/>
         <v>6020</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <f t="shared" si="4"/>
         <v>1655.5000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="5">
         <v>8000</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <f t="shared" si="2"/>
         <v>1051.0486000000001</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <f t="shared" si="3"/>
         <v>6948.9513999999999</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="5">
         <f t="shared" si="4"/>
         <v>1910.9616350000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="5">
         <v>10000</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <f t="shared" si="2"/>
         <v>1051.0486000000001</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <f t="shared" si="3"/>
         <v>8948.9513999999999</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <f t="shared" si="4"/>
         <v>2460.9616350000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="5">
         <v>4150</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <f ca="1">B31*(1 + $D$31)</f>
-        <v>4980</v>
-      </c>
-      <c r="D31" s="27">
+        <v>6017.5</v>
+      </c>
+      <c r="D31" s="12">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="5">
         <v>2000</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <f ca="1">B32*(1 + $D$31)</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="5">
         <v>4800</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <f ca="1">B33*(1 + $D$31)</f>
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="5">
         <v>9800</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="5">
         <f ca="1">B34*(1 + $D$31)</f>
-        <v>11760</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <v>8600</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <f ca="1">B35*(1 + $D$31)</f>
-        <v>10320</v>
+        <v>12470</v>
       </c>
     </row>
   </sheetData>

--- a/SOP/Aula6-18.09.2023/Exercicios.xlsx
+++ b/SOP/Aula6-18.09.2023/Exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carlos\SENAI-2023\SOP\Aula6-18.09.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BF055-3921-4055-9580-82AC5262A030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320E68B4-E6BC-45C8-A09D-85E0A034BC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{939DA7DB-8928-4CEF-BB7F-60BA5D075256}"/>
   </bookViews>
@@ -733,13 +733,13 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
@@ -1319,11 +1319,11 @@
       </c>
       <c r="C31" s="5">
         <f ca="1">B31*(1 + $D$31)</f>
-        <v>6017.5</v>
+        <v>4772.5</v>
       </c>
       <c r="D31" s="12">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C32" s="5">
         <f ca="1">B32*(1 + $D$31)</f>
-        <v>2900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C33" s="5">
         <f ca="1">B33*(1 + $D$31)</f>
-        <v>6960</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C34" s="5">
         <f ca="1">B34*(1 + $D$31)</f>
-        <v>14210</v>
+        <v>11270</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C35" s="5">
         <f ca="1">B35*(1 + $D$31)</f>
-        <v>12470</v>
+        <v>9890</v>
       </c>
     </row>
   </sheetData>
